--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -425,10 +449,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -472,28 +496,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="3">
+      <c r="C12" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -518,28 +542,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -627,10 +651,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -674,28 +698,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="3">
+      <c r="C19" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -720,28 +744,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="3">
+      <c r="I21" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -887,10 +911,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -934,28 +958,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="3">
+      <c r="A28" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="3">
+      <c r="B28" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="3">
+      <c r="C28" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="3">
+      <c r="F28" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="3">
+      <c r="G28" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="3">
+      <c r="H28" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -980,28 +1004,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="3">
+      <c r="B30" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="3">
+      <c r="C30" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="3">
+      <c r="D30" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="3">
+      <c r="F30" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="3">
+      <c r="I30" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1118,10 +1142,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1165,28 +1189,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="A36" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="3">
+      <c r="C36" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1211,28 +1235,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="3">
+      <c r="I38" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1320,10 +1344,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="3" t="s">
+      <c r="J41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1367,28 +1391,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="3">
+      <c r="A43" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="3">
+      <c r="C43" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1413,28 +1437,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="3">
+      <c r="C45" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="3">
+      <c r="D45" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="3">
+      <c r="I45" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1522,10 +1546,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1569,28 +1593,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="3">
+      <c r="A50" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="3">
+      <c r="C50" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1615,28 +1639,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="3">
+      <c r="I52" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1753,10 +1777,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="J56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1800,28 +1824,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="3">
+      <c r="A58" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="3">
+      <c r="C58" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1846,28 +1870,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="3">
+      <c r="I60" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2071,10 +2095,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="3" t="s">
+      <c r="J67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2118,28 +2142,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="3">
+      <c r="A69" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="3">
+      <c r="C69" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2164,28 +2188,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="3">
+      <c r="B71" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="3">
+      <c r="C71" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="3">
+      <c r="D71" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="3">
+      <c r="F71" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="3">
+      <c r="G71" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="3">
+      <c r="H71" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="3">
+      <c r="I71" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2389,10 +2413,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2436,28 +2460,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2482,28 +2506,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2649,10 +2673,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="3" t="s">
+      <c r="J87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2696,28 +2720,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="3">
+      <c r="A89" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="3">
+      <c r="C89" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2742,28 +2766,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="3">
+      <c r="B91" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="3">
+      <c r="C91" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="3">
+      <c r="D91" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="3">
+      <c r="F91" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="3">
+      <c r="G91" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="3">
+      <c r="H91" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="3">
+      <c r="I91" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2938,10 +2962,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2985,28 +3009,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="3">
+      <c r="C99" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3031,28 +3055,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3227,10 +3251,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="J107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3274,28 +3298,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="A109" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="3">
+      <c r="C109" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3320,28 +3344,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="3">
+      <c r="I111" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3458,10 +3482,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="3" t="s">
+      <c r="J115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3505,28 +3529,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="3">
+      <c r="A117" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="3">
+      <c r="C117" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3551,28 +3575,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="3">
+      <c r="C119" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="3">
+      <c r="D119" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="3">
+      <c r="I119" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3776,10 +3800,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="3" t="s">
+      <c r="J126" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3823,28 +3847,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="3">
+      <c r="A128" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="3">
+      <c r="B128" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="3">
+      <c r="C128" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="3">
+      <c r="F128" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="3">
+      <c r="G128" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="3">
+      <c r="H128" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3869,28 +3893,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="3">
+      <c r="C130" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="3">
+      <c r="D130" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="3">
+      <c r="I130" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4065,10 +4089,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="3" t="s">
+      <c r="J136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4112,28 +4136,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="3">
+      <c r="A138" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="3">
+      <c r="C138" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4158,28 +4182,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="3">
+      <c r="B140" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="3">
+      <c r="C140" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="3">
+      <c r="D140" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="F140" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="3">
+      <c r="G140" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="3">
+      <c r="H140" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="3">
+      <c r="I140" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4296,10 +4320,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4343,28 +4367,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4389,28 +4413,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4527,10 +4551,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4574,28 +4598,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4620,28 +4644,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4729,10 +4753,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="3" t="s">
+      <c r="J159" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4776,28 +4800,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="3">
+      <c r="A161" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="3">
+      <c r="C161" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4822,28 +4846,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="3">
+      <c r="B163" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="3">
+      <c r="C163" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="3">
+      <c r="D163" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="3">
+      <c r="E163" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="3">
+      <c r="F163" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="3">
+      <c r="G163" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="3">
+      <c r="H163" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="3">
+      <c r="I163" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4989,10 +5013,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="3" t="s">
+      <c r="J168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5036,28 +5060,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="3">
+      <c r="A170" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="3">
+      <c r="C170" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5082,28 +5106,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="3">
+      <c r="C172" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="3">
+      <c r="D172" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="3">
+      <c r="I172" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5220,10 +5244,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="3" t="s">
+      <c r="J176" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5267,28 +5291,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="3">
+      <c r="A178" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="3">
+      <c r="C178" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5313,28 +5337,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="3">
+      <c r="C180" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="3">
+      <c r="D180" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="3">
+      <c r="I180" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5480,10 +5504,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="3" t="s">
+      <c r="J185" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5527,28 +5551,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="3">
+      <c r="A187" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="3">
+      <c r="C187" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5573,28 +5597,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="3">
+      <c r="B189" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="3">
+      <c r="C189" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="3">
+      <c r="D189" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="3">
+      <c r="E189" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="3">
+      <c r="F189" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="3">
+      <c r="G189" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="3">
+      <c r="H189" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="3">
+      <c r="I189" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5769,10 +5793,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="3" t="s">
+      <c r="J195" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5816,28 +5840,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="3">
+      <c r="A197" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="3">
+      <c r="B197" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="3">
+      <c r="C197" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="3">
+      <c r="E197" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="3">
+      <c r="F197" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="3">
+      <c r="G197" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="3">
+      <c r="H197" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5862,28 +5886,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="3">
+      <c r="B199" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="3">
+      <c r="C199" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="3">
+      <c r="D199" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="3">
+      <c r="E199" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="3">
+      <c r="F199" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="3">
+      <c r="G199" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="3">
+      <c r="H199" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="3">
+      <c r="I199" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6058,10 +6082,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="J205" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6105,28 +6129,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="3">
+      <c r="A207" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="3">
+      <c r="C207" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6151,28 +6175,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="3">
+      <c r="C209" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="3">
+      <c r="D209" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="3">
+      <c r="I209" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6231,10 +6255,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="3" t="s">
+      <c r="J211" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6278,28 +6302,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="3">
+      <c r="A213" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="3">
+      <c r="B213" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="3">
+      <c r="C213" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="3">
+      <c r="E213" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="3">
+      <c r="F213" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="3">
+      <c r="G213" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="3">
+      <c r="H213" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6324,28 +6348,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="3">
+      <c r="B215" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="3">
+      <c r="C215" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="3">
+      <c r="D215" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="3">
+      <c r="E215" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="3">
+      <c r="F215" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="3">
+      <c r="G215" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="3">
+      <c r="H215" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="3">
+      <c r="I215" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6520,10 +6544,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="3" t="s">
+      <c r="J221" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6567,28 +6591,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="3">
+      <c r="A223" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="3">
+      <c r="C223" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6613,28 +6637,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="3">
+      <c r="B225" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="3">
+      <c r="C225" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="3">
+      <c r="D225" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="3">
+      <c r="E225" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="3">
+      <c r="F225" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="3">
+      <c r="G225" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="3">
+      <c r="H225" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="3">
+      <c r="I225" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6780,10 +6804,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="3" t="s">
+      <c r="J230" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6827,28 +6851,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="3">
+      <c r="A232" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="3">
+      <c r="B232" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="3">
+      <c r="C232" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E232" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="3">
+      <c r="F232" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="3">
+      <c r="G232" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="3">
+      <c r="H232" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6873,28 +6897,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="3">
+      <c r="C234" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="3">
+      <c r="D234" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="3">
+      <c r="I234" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6953,10 +6977,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="3" t="s">
+      <c r="J236" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
